--- a/Components/FAIO_Multiplexer_Wireless_BOM.xlsx
+++ b/Components/FAIO_Multiplexer_Wireless_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milad\Development\FAIO_Multiplexer_Wireless\Components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Personal\FAIO_Multiplexer_Wireless\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F4EDB6-2D3F-4D95-9F47-0166733C9C44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17B0AC22-8C9A-4753-B148-07EF714CB203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FAIO-Multiplexer Wireless" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>Index</t>
   </si>
@@ -123,6 +123,25 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CF14JT470R/CF14JT470RCT-ND/1830342</t>
+  </si>
+  <si>
+    <t>36-4701-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+HEX NUT 0.245" STEEL 6-32</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/4701/316272</t>
+  </si>
+  <si>
+    <t>36-9309-ND</t>
+  </si>
+  <si>
+    <t>MACH SCREW PAN HEAD SLOTTED 6-32</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/9309/2746088</t>
   </si>
 </sst>
 </file>
@@ -182,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,6 +215,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,20 +535,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2EBB79-64DA-4046-BB4C-7A9E04984D82}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.89453125" customWidth="1"/>
-    <col min="2" max="2" width="12.3671875" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="16.62890625" customWidth="1"/>
-    <col min="7" max="7" width="16.5234375" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -673,193 +697,289 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+    <row r="7" spans="1:8" ht="28.8">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="G7" s="2">
-        <f>(F2*B2+F3*B3+F4*B4+F5*B5+F6*B6)</f>
-        <v>38.950000000000003</v>
-      </c>
-      <c r="H7" s="2"/>
+      <c r="C7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9">
+        <v>4701</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="9">
+        <v>9309</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <f>(F2*B2+F3*B3+F4*B4+F5*B5+F6*B6+F7*B7+F8*B8)</f>
+        <v>39.75</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2829</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2">
-        <v>29.95</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>2886</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2829</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F12" s="2">
-        <v>0.95</v>
+        <v>29.95</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8" t="s">
-        <v>30</v>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>2886</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
       </c>
       <c r="F14" s="2">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+    <row r="17" spans="1:8" ht="28.8">
+      <c r="A17" s="7">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7">
         <v>4</v>
       </c>
-      <c r="G15" s="2">
-        <f>(F10*B10+F11*B11+F12*B12+F13*B13+F14*B14)</f>
-        <v>38.950000000000003</v>
-      </c>
-      <c r="H15" s="2"/>
+      <c r="C17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="9">
+        <v>4701</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="11">
+        <v>7</v>
+      </c>
+      <c r="B18" s="11">
+        <v>4</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="9">
+        <v>9309</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2">
+        <f>(F12*B12+F13*B13+F14*B14+F15*B15+F16*B16+F17*B17+F18*B18)</f>
+        <v>39.75</v>
+      </c>
+      <c r="H19" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -867,12 +987,16 @@
     <hyperlink ref="H4" r:id="rId2" xr:uid="{E41DE43C-EF19-40E9-AB59-5C08E9976EB2}"/>
     <hyperlink ref="H6" r:id="rId3" xr:uid="{02FA6F36-D8D7-4B6B-A83C-7D527827EDA3}"/>
     <hyperlink ref="H2" r:id="rId4" xr:uid="{D0531FA3-65AA-4786-B0F0-C70B85428592}"/>
-    <hyperlink ref="H11" r:id="rId5" xr:uid="{0F47E7CA-717D-48A8-AB7D-C053F03A91B7}"/>
-    <hyperlink ref="H12" r:id="rId6" xr:uid="{F5E32E96-E2E2-4B11-AD8C-76252EA44C31}"/>
-    <hyperlink ref="H14" r:id="rId7" xr:uid="{5E04054A-9650-4380-AAB4-3DB187100DDF}"/>
-    <hyperlink ref="H10" r:id="rId8" xr:uid="{0F160FD1-FEB9-4B42-9A72-00182DF14A0A}"/>
-    <hyperlink ref="H13" r:id="rId9" xr:uid="{694AB5F4-FFAE-4B57-91AB-CABF5081DF06}"/>
+    <hyperlink ref="H13" r:id="rId5" xr:uid="{0F47E7CA-717D-48A8-AB7D-C053F03A91B7}"/>
+    <hyperlink ref="H14" r:id="rId6" xr:uid="{F5E32E96-E2E2-4B11-AD8C-76252EA44C31}"/>
+    <hyperlink ref="H16" r:id="rId7" xr:uid="{5E04054A-9650-4380-AAB4-3DB187100DDF}"/>
+    <hyperlink ref="H12" r:id="rId8" xr:uid="{0F160FD1-FEB9-4B42-9A72-00182DF14A0A}"/>
+    <hyperlink ref="H15" r:id="rId9" xr:uid="{694AB5F4-FFAE-4B57-91AB-CABF5081DF06}"/>
     <hyperlink ref="H5" r:id="rId10" xr:uid="{197FAFE4-2BD5-494C-9BB6-8C43D3C99E48}"/>
+    <hyperlink ref="H7" r:id="rId11" xr:uid="{DFB0E8C4-FB16-4FB9-A819-19AF3A921F5F}"/>
+    <hyperlink ref="H8" r:id="rId12" xr:uid="{82DBA8B8-4124-4D87-B865-E5F38E046C45}"/>
+    <hyperlink ref="H17" r:id="rId13" xr:uid="{98335C1C-18CD-4564-BF28-796C9BD8ACD5}"/>
+    <hyperlink ref="H18" r:id="rId14" xr:uid="{649D44B2-EDA9-4F69-B73D-D43F8E5FF20B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components/FAIO_Multiplexer_Wireless_BOM.xlsx
+++ b/Components/FAIO_Multiplexer_Wireless_BOM.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Personal\FAIO_Multiplexer_Wireless\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17B0AC22-8C9A-4753-B148-07EF714CB203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{725ADA88-33D1-433B-B29F-26CE8D4303B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FAIO-Multiplexer Wireless" sheetId="2" r:id="rId1"/>
+    <sheet name="FAIO-Multiplexer Wireless" sheetId="3" r:id="rId1"/>
+    <sheet name="FAIO-Multiplexer Wireless Alt" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>Index</t>
   </si>
@@ -89,9 +90,6 @@
     <t xml:space="preserve">https://www.digikey.com/product-detail/en/cui-inc/SJ1-3535NG/CP1-3535NG-ND </t>
   </si>
   <si>
-    <t xml:space="preserve">Alternative </t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -125,23 +123,40 @@
     <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CF14JT470R/CF14JT470RCT-ND/1830342</t>
   </si>
   <si>
-    <t>36-4701-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-HEX NUT 0.245" STEEL 6-32</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/keystone-electronics/4701/316272</t>
-  </si>
-  <si>
-    <t>36-9309-ND</t>
-  </si>
-  <si>
-    <t>MACH SCREW PAN HEAD SLOTTED 6-32</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/keystone-electronics/9309/2746088</t>
+    <t>36-4687-ND</t>
+  </si>
+  <si>
+    <t>HEX NUT 0.197" NYLON M2.5</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/4687/4499296</t>
+  </si>
+  <si>
+    <t>36-29334-ND</t>
+  </si>
+  <si>
+    <t>MACH SCREW PAN SLOTTED M2.5X0.45</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/keystone-electronics/29334/1532988</t>
+  </si>
+  <si>
+    <t>732-5318-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 5POS 2.54MM</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/wurth-electronics-inc/61300511121/732-5318-ND</t>
+  </si>
+  <si>
+    <t>1528-1858-ND</t>
+  </si>
+  <si>
+    <t>BATTERY LITHIUM 3.7V 350MAH (Optional)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/2750/6612470</t>
   </si>
 </sst>
 </file>
@@ -201,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,7 +224,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,11 +548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2EBB79-64DA-4046-BB4C-7A9E04984D82}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E9517F-F92B-4830-B053-46043A9F4337}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -573,8 +587,8 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>20</v>
+      <c r="H1" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -585,13 +599,313 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
         <v>2995</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>29.95</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>2886</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8">
+        <v>4687</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="8">
+        <v>29334</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="8">
+        <v>61300511121</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2750</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="8">
+        <v>6.95</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="10">
+        <f>(F2*B2+F3*B3+F4*B4+F5*B5+F6*B6+F7*B7+F8*B8+F9*B9)</f>
+        <v>40.680000000000007</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{92749627-1CBD-4305-ABB7-6BC3D2E28AC7}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{15320406-B380-440B-8BA6-EFF23AC0B47D}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{67C8CE52-57F6-4A29-9664-F4A2EEE38CDA}"/>
+    <hyperlink ref="H2" r:id="rId4" xr:uid="{930D8D1D-79AB-40D5-B4F7-920C322D2312}"/>
+    <hyperlink ref="H5" r:id="rId5" xr:uid="{647B6A96-3545-4BE5-AF97-19BCD5D336FF}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{9560176D-8343-4792-A3CE-334D6E4F2DD3}"/>
+    <hyperlink ref="H7" r:id="rId7" xr:uid="{F33EBAC0-E1EE-41A5-AF54-5208AA3366F8}"/>
+    <hyperlink ref="H8" r:id="rId8" xr:uid="{24C07F34-307A-4ED8-904E-82B6DDA0C981}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94874394-6BEB-4664-BE30-FA3FF6ADFACA}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2829</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F2" s="2">
         <v>29.95</v>
@@ -656,21 +970,21 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -697,306 +1011,137 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8">
-      <c r="A7" s="7">
+    <row r="7" spans="1:8">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8">
+        <v>4687</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="9">
-        <v>4701</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="D8" s="8">
+        <v>29334</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="8">
+        <v>61300511121</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2750</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="8">
+        <v>6.95</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="9">
-        <v>9309</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2">
-        <f>(F2*B2+F3*B3+F4*B4+F5*B5+F6*B6+F7*B7+F8*B8)</f>
-        <v>39.75</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2829</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="2">
-        <v>29.95</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>2886</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="28.8">
-      <c r="A17" s="7">
-        <v>6</v>
-      </c>
-      <c r="B17" s="7">
-        <v>4</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="9">
-        <v>4701</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="11">
-        <v>7</v>
-      </c>
-      <c r="B18" s="11">
-        <v>4</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="9">
-        <v>9309</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="2">
-        <f>(F12*B12+F13*B13+F14*B14+F15*B15+F16*B16+F17*B17+F18*B18)</f>
-        <v>39.75</v>
-      </c>
-      <c r="H19" s="2"/>
+      <c r="G12" s="10">
+        <f>(F2*B2+F3*B3+F4*B4+F5*B5+F6*B6+F7*B7+F8*B8+F9*B9)</f>
+        <v>40.680000000000007</v>
+      </c>
+      <c r="H12" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{54DCDEF7-55E6-4D66-B894-BD702A3DCFA4}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{E41DE43C-EF19-40E9-AB59-5C08E9976EB2}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{02FA6F36-D8D7-4B6B-A83C-7D527827EDA3}"/>
-    <hyperlink ref="H2" r:id="rId4" xr:uid="{D0531FA3-65AA-4786-B0F0-C70B85428592}"/>
-    <hyperlink ref="H13" r:id="rId5" xr:uid="{0F47E7CA-717D-48A8-AB7D-C053F03A91B7}"/>
-    <hyperlink ref="H14" r:id="rId6" xr:uid="{F5E32E96-E2E2-4B11-AD8C-76252EA44C31}"/>
-    <hyperlink ref="H16" r:id="rId7" xr:uid="{5E04054A-9650-4380-AAB4-3DB187100DDF}"/>
-    <hyperlink ref="H12" r:id="rId8" xr:uid="{0F160FD1-FEB9-4B42-9A72-00182DF14A0A}"/>
-    <hyperlink ref="H15" r:id="rId9" xr:uid="{694AB5F4-FFAE-4B57-91AB-CABF5081DF06}"/>
-    <hyperlink ref="H5" r:id="rId10" xr:uid="{197FAFE4-2BD5-494C-9BB6-8C43D3C99E48}"/>
-    <hyperlink ref="H7" r:id="rId11" xr:uid="{DFB0E8C4-FB16-4FB9-A819-19AF3A921F5F}"/>
-    <hyperlink ref="H8" r:id="rId12" xr:uid="{82DBA8B8-4124-4D87-B865-E5F38E046C45}"/>
-    <hyperlink ref="H17" r:id="rId13" xr:uid="{98335C1C-18CD-4564-BF28-796C9BD8ACD5}"/>
-    <hyperlink ref="H18" r:id="rId14" xr:uid="{649D44B2-EDA9-4F69-B73D-D43F8E5FF20B}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{05E11096-F35A-442E-9033-A774B10E34AD}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{F78D930B-4B0A-45B3-B8D6-FCF61F779B35}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{0A40122E-D7F9-4712-8BCC-6C250A1C8BC2}"/>
+    <hyperlink ref="H2" r:id="rId4" xr:uid="{7B118EF0-9352-4598-9E2E-0C6CE798E601}"/>
+    <hyperlink ref="H5" r:id="rId5" xr:uid="{A29FBD5D-F9B2-431F-9783-51F2367593E6}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{AEF19C0D-DC3A-4DA8-B109-4D725A77DE18}"/>
+    <hyperlink ref="H7" r:id="rId7" xr:uid="{A99C66CC-2335-457D-AD89-DEB941B20C78}"/>
+    <hyperlink ref="H8" r:id="rId8" xr:uid="{4C5CF24F-A2E3-42DA-B78A-D27030604399}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
